--- a/Phenoloxidase Activity data/AEG.xlsx
+++ b/Phenoloxidase Activity data/AEG.xlsx
@@ -56,9 +56,6 @@
     <t>Exploratory</t>
   </si>
   <si>
-    <t>Soil Type</t>
-  </si>
-  <si>
     <t>Depth (cm)</t>
   </si>
   <si>
@@ -255,6 +252,9 @@
   </si>
   <si>
     <t>F_2018-2022</t>
+  </si>
+  <si>
+    <t>Soil_Type</t>
   </si>
 </sst>
 </file>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -627,34 +627,34 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>8</v>
@@ -663,10 +663,10 @@
         <v>9</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -674,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>91133</v>
@@ -722,16 +722,16 @@
         <v>2.79</v>
       </c>
       <c r="R2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" t="s">
         <v>14</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>15</v>
-      </c>
-      <c r="U2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -739,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>91134</v>
@@ -787,16 +787,16 @@
         <v>4.13</v>
       </c>
       <c r="R3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" t="s">
         <v>14</v>
       </c>
-      <c r="T3" t="s">
-        <v>15</v>
-      </c>
       <c r="U3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>91135</v>
@@ -852,16 +852,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" t="s">
         <v>14</v>
       </c>
-      <c r="T4" t="s">
-        <v>15</v>
-      </c>
       <c r="U4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>91136</v>
@@ -917,16 +917,16 @@
         <v>1.22</v>
       </c>
       <c r="R5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" t="s">
         <v>14</v>
       </c>
-      <c r="T5" t="s">
-        <v>15</v>
-      </c>
       <c r="U5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>91137</v>
@@ -982,16 +982,16 @@
         <v>0.75</v>
       </c>
       <c r="R6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" t="s">
         <v>14</v>
       </c>
-      <c r="T6" t="s">
-        <v>15</v>
-      </c>
       <c r="U6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -999,7 +999,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>91138</v>
@@ -1047,16 +1047,16 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="R7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" t="s">
         <v>14</v>
       </c>
-      <c r="T7" t="s">
-        <v>15</v>
-      </c>
       <c r="U7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -1064,7 +1064,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>91139</v>
@@ -1112,16 +1112,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T8" t="s">
         <v>14</v>
       </c>
-      <c r="T8" t="s">
-        <v>15</v>
-      </c>
       <c r="U8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -1129,7 +1129,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>91140</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T9" t="s">
         <v>14</v>
       </c>
-      <c r="T9" t="s">
-        <v>15</v>
-      </c>
       <c r="U9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -1194,7 +1194,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>91141</v>
@@ -1242,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" t="s">
         <v>14</v>
       </c>
-      <c r="T10" t="s">
-        <v>15</v>
-      </c>
       <c r="U10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1259,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>91142</v>
@@ -1307,16 +1307,16 @@
         <v>0.04</v>
       </c>
       <c r="R11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S11" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11" t="s">
         <v>14</v>
       </c>
-      <c r="T11" t="s">
-        <v>15</v>
-      </c>
       <c r="U11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1324,7 +1324,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>91143</v>
@@ -1372,16 +1372,16 @@
         <v>3.07</v>
       </c>
       <c r="R12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S12" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12" t="s">
         <v>14</v>
       </c>
-      <c r="T12" t="s">
-        <v>15</v>
-      </c>
       <c r="U12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>91144</v>
@@ -1437,16 +1437,16 @@
         <v>2.71</v>
       </c>
       <c r="R13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S13" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13" t="s">
         <v>14</v>
       </c>
-      <c r="T13" t="s">
-        <v>15</v>
-      </c>
       <c r="U13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>91145</v>
@@ -1502,16 +1502,16 @@
         <v>2.29</v>
       </c>
       <c r="R14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S14" t="s">
+        <v>13</v>
+      </c>
+      <c r="T14" t="s">
         <v>14</v>
       </c>
-      <c r="T14" t="s">
-        <v>15</v>
-      </c>
       <c r="U14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1519,7 +1519,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>91146</v>
@@ -1567,16 +1567,16 @@
         <v>3.73</v>
       </c>
       <c r="R15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S15" t="s">
+        <v>13</v>
+      </c>
+      <c r="T15" t="s">
         <v>14</v>
       </c>
-      <c r="T15" t="s">
-        <v>15</v>
-      </c>
       <c r="U15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1584,7 +1584,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>91147</v>
@@ -1632,16 +1632,16 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="R16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S16" t="s">
+        <v>13</v>
+      </c>
+      <c r="T16" t="s">
         <v>14</v>
       </c>
-      <c r="T16" t="s">
-        <v>15</v>
-      </c>
       <c r="U16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -1649,7 +1649,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>91148</v>
@@ -1697,16 +1697,16 @@
         <v>0.99</v>
       </c>
       <c r="R17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S17" t="s">
+        <v>13</v>
+      </c>
+      <c r="T17" t="s">
         <v>14</v>
       </c>
-      <c r="T17" t="s">
-        <v>15</v>
-      </c>
       <c r="U17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -1714,7 +1714,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>91149</v>
@@ -1762,16 +1762,16 @@
         <v>0.5</v>
       </c>
       <c r="R18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S18" t="s">
+        <v>13</v>
+      </c>
+      <c r="T18" t="s">
         <v>14</v>
       </c>
-      <c r="T18" t="s">
-        <v>15</v>
-      </c>
       <c r="U18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -1779,7 +1779,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>91150</v>
@@ -1827,16 +1827,16 @@
         <v>2.88</v>
       </c>
       <c r="R19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S19" t="s">
+        <v>13</v>
+      </c>
+      <c r="T19" t="s">
         <v>14</v>
       </c>
-      <c r="T19" t="s">
-        <v>15</v>
-      </c>
       <c r="U19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -1844,7 +1844,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>91151</v>
@@ -1892,16 +1892,16 @@
         <v>0.81</v>
       </c>
       <c r="R20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" t="s">
         <v>14</v>
       </c>
-      <c r="T20" t="s">
-        <v>15</v>
-      </c>
       <c r="U20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -1909,7 +1909,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>91152</v>
@@ -1957,16 +1957,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S21" t="s">
+        <v>13</v>
+      </c>
+      <c r="T21" t="s">
         <v>14</v>
       </c>
-      <c r="T21" t="s">
-        <v>15</v>
-      </c>
       <c r="U21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -1974,7 +1974,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>91153</v>
@@ -2022,16 +2022,16 @@
         <v>0.61</v>
       </c>
       <c r="R22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S22" t="s">
+        <v>13</v>
+      </c>
+      <c r="T22" t="s">
         <v>14</v>
       </c>
-      <c r="T22" t="s">
-        <v>15</v>
-      </c>
       <c r="U22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -2039,7 +2039,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>91154</v>
@@ -2087,16 +2087,16 @@
         <v>0.64</v>
       </c>
       <c r="R23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S23" t="s">
+        <v>13</v>
+      </c>
+      <c r="T23" t="s">
         <v>14</v>
       </c>
-      <c r="T23" t="s">
-        <v>15</v>
-      </c>
       <c r="U23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -2104,7 +2104,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>91155</v>
@@ -2152,16 +2152,16 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="R24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S24" t="s">
+        <v>13</v>
+      </c>
+      <c r="T24" t="s">
         <v>14</v>
       </c>
-      <c r="T24" t="s">
-        <v>15</v>
-      </c>
       <c r="U24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -2169,7 +2169,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>91156</v>
@@ -2217,16 +2217,16 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="R25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T25" t="s">
         <v>14</v>
       </c>
-      <c r="T25" t="s">
-        <v>15</v>
-      </c>
       <c r="U25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -2234,7 +2234,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>91157</v>
@@ -2282,16 +2282,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S26" t="s">
+        <v>13</v>
+      </c>
+      <c r="T26" t="s">
         <v>14</v>
       </c>
-      <c r="T26" t="s">
-        <v>15</v>
-      </c>
       <c r="U26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -2299,7 +2299,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>91158</v>
@@ -2347,16 +2347,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S27" t="s">
+        <v>13</v>
+      </c>
+      <c r="T27" t="s">
         <v>14</v>
       </c>
-      <c r="T27" t="s">
-        <v>15</v>
-      </c>
       <c r="U27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -2364,7 +2364,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>91159</v>
@@ -2412,16 +2412,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S28" t="s">
+        <v>13</v>
+      </c>
+      <c r="T28" t="s">
         <v>14</v>
       </c>
-      <c r="T28" t="s">
-        <v>15</v>
-      </c>
       <c r="U28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
@@ -2429,7 +2429,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>91160</v>
@@ -2477,16 +2477,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S29" t="s">
+        <v>13</v>
+      </c>
+      <c r="T29" t="s">
         <v>14</v>
       </c>
-      <c r="T29" t="s">
-        <v>15</v>
-      </c>
       <c r="U29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
@@ -2494,7 +2494,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>91161</v>
@@ -2542,16 +2542,16 @@
         <v>0.15</v>
       </c>
       <c r="R30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
@@ -2559,7 +2559,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>91162</v>
@@ -2607,16 +2607,16 @@
         <v>0.68</v>
       </c>
       <c r="R31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S31" t="s">
+        <v>13</v>
+      </c>
+      <c r="T31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T31" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="U31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
@@ -2624,7 +2624,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>91163</v>
@@ -2672,16 +2672,16 @@
         <v>0.08</v>
       </c>
       <c r="R32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S32" t="s">
+        <v>13</v>
+      </c>
+      <c r="T32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T32" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="U32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
@@ -2689,7 +2689,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>91164</v>
@@ -2737,16 +2737,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S33" t="s">
+        <v>13</v>
+      </c>
+      <c r="T33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T33" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="U33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -2754,7 +2754,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>91165</v>
@@ -2802,16 +2802,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S34" t="s">
+        <v>13</v>
+      </c>
+      <c r="T34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T34" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="U34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -2819,7 +2819,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>91166</v>
@@ -2867,16 +2867,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S35" t="s">
+        <v>13</v>
+      </c>
+      <c r="T35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T35" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="U35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -2884,7 +2884,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>91167</v>
@@ -2932,16 +2932,16 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="R36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
@@ -2949,7 +2949,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>91168</v>
@@ -2997,16 +2997,16 @@
         <v>2.35</v>
       </c>
       <c r="R37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
@@ -3014,7 +3014,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>91169</v>
@@ -3062,16 +3062,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="R38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
@@ -3079,7 +3079,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>91170</v>
@@ -3127,16 +3127,16 @@
         <v>0.36</v>
       </c>
       <c r="R39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
@@ -3144,7 +3144,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>91171</v>
@@ -3192,16 +3192,16 @@
         <v>1.57</v>
       </c>
       <c r="R40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
@@ -3209,7 +3209,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>91172</v>
@@ -3257,16 +3257,16 @@
         <v>0.74</v>
       </c>
       <c r="R41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
@@ -3274,7 +3274,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>91173</v>
@@ -3322,16 +3322,16 @@
         <v>2.37</v>
       </c>
       <c r="R42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
@@ -3339,7 +3339,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>91174</v>
@@ -3387,16 +3387,16 @@
         <v>1.2</v>
       </c>
       <c r="R43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
@@ -3404,7 +3404,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>91175</v>
@@ -3452,16 +3452,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
@@ -3469,7 +3469,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45">
         <v>91176</v>
@@ -3517,16 +3517,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
@@ -3534,7 +3534,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46">
         <v>91177</v>
@@ -3582,16 +3582,16 @@
         <v>0.34</v>
       </c>
       <c r="R46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
@@ -3599,7 +3599,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47">
         <v>91178</v>
@@ -3647,16 +3647,16 @@
         <v>0</v>
       </c>
       <c r="R47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
@@ -3664,7 +3664,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48">
         <v>91179</v>
@@ -3712,16 +3712,16 @@
         <v>0</v>
       </c>
       <c r="R48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
@@ -3729,7 +3729,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49">
         <v>91180</v>
@@ -3777,16 +3777,16 @@
         <v>0</v>
       </c>
       <c r="R49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
@@ -3794,7 +3794,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50">
         <v>91181</v>
@@ -3842,16 +3842,16 @@
         <v>0</v>
       </c>
       <c r="R50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
@@ -3859,7 +3859,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51">
         <v>91182</v>
@@ -3907,16 +3907,16 @@
         <v>0.05</v>
       </c>
       <c r="R51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
